--- a/biology/Médecine/1121_en_santé_et_médecine/1121_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1121_en_santé_et_médecine/1121_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1121_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1121_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1121 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1121_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1121_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Construction d'un hôpital sur l'île San Clemente à Venise[1].
-L'hospice de Bagas, sur la Via Tolosana, est rattaché  à l'hôpital Sainte-Christine du Somport, établissement que, dans son Guide du pèlerin, Aimery Picaud décrira comme « l'une des trois colonnes nécessaires entre toutes instituées par Dieu en ce monde pour soutenir ses pauvres[2] ».
-Première mention, dans la région de Bologne en Italie, du castrum à proximité duquel jaillissent les eaux qui justifieront, à partir du XIIIe siècle, le développement de la station thermale des « Bagni della Porretta[3] ».
-Avant 1121 : fondation d'une maison-Dieu à Mormant dans le diocèse de Langres, pour accueillir « les personnes démunies et les pèlerins allant sur les chemins[4] ».
-1121-1122 : fondation de léproseries à Riom en Auvergne[5].
-1121-1145 : construction de l'hôpital Saint-Paul (St. Paul's Hospital) à Norwich, capitale du comté du Norfolk en Angleterre[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction d'un hôpital sur l'île San Clemente à Venise.
+L'hospice de Bagas, sur la Via Tolosana, est rattaché  à l'hôpital Sainte-Christine du Somport, établissement que, dans son Guide du pèlerin, Aimery Picaud décrira comme « l'une des trois colonnes nécessaires entre toutes instituées par Dieu en ce monde pour soutenir ses pauvres ».
+Première mention, dans la région de Bologne en Italie, du castrum à proximité duquel jaillissent les eaux qui justifieront, à partir du XIIIe siècle, le développement de la station thermale des « Bagni della Porretta ».
+Avant 1121 : fondation d'une maison-Dieu à Mormant dans le diocèse de Langres, pour accueillir « les personnes démunies et les pèlerins allant sur les chemins ».
+1121-1122 : fondation de léproseries à Riom en Auvergne.
+1121-1145 : construction de l'hôpital Saint-Paul (St. Paul's Hospital) à Norwich, capitale du comté du Norfolk en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1121_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1121_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1121-1134 : rédaction du Bestiaire de Philippe de Thaon qui contient la première occurrence connue du mot « médecine », employé sous la forme « medicine » et au sens de « médicament, remède[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1121-1134 : rédaction du Bestiaire de Philippe de Thaon qui contient la première occurrence connue du mot « médecine », employé sous la forme « medicine » et au sens de « médicament, remède ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1121_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1121_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1121-1122 : Avenzoar (1091 ?-1162) rédige un traité « de vulgarisation médicale », le Kitab al-iqtisad fi islah al-anfus wa al-ajsad (« Livre sur la réforme des âmes et des corps »), qui aborde des questions d'hygiène et de pathologie et, en thérapeutique, celle de la dimension psychologique du traitement[8].
-1121-1162 : Avenzoar (1091 ?-1162) compose son « ouvrage capital », le Teyssir, dont « le titre complet signifie : « Livre de la simplification concernant la thérapeutique et la diététique[8] » ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1121-1122 : Avenzoar (1091 ?-1162) rédige un traité « de vulgarisation médicale », le Kitab al-iqtisad fi islah al-anfus wa al-ajsad (« Livre sur la réforme des âmes et des corps »), qui aborde des questions d'hygiène et de pathologie et, en thérapeutique, celle de la dimension psychologique du traitement.
+1121-1162 : Avenzoar (1091 ?-1162) compose son « ouvrage capital », le Teyssir, dont « le titre complet signifie : « Livre de la simplification concernant la thérapeutique et la diététique » ».
 </t>
         </is>
       </c>
